--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,7 +88,10 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H2">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0362080219102572</v>
+        <v>0.08013433333333332</v>
       </c>
       <c r="N2">
-        <v>0.0362080219102572</v>
+        <v>0.240403</v>
       </c>
       <c r="O2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="P2">
-        <v>0.003887757000464902</v>
+        <v>0.008122697422248188</v>
       </c>
       <c r="Q2">
-        <v>0.06276126605841331</v>
+        <v>0.0008576243467777776</v>
       </c>
       <c r="R2">
-        <v>0.06276126605841331</v>
+        <v>0.007718619120999999</v>
       </c>
       <c r="S2">
-        <v>0.003887757000464902</v>
+        <v>4.887588123105699E-05</v>
       </c>
       <c r="T2">
-        <v>0.003887757000464902</v>
+        <v>4.887588123105699E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H3">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.64556279984885</v>
+        <v>7.647982</v>
       </c>
       <c r="N3">
-        <v>7.64556279984885</v>
+        <v>22.943946</v>
       </c>
       <c r="O3">
-        <v>0.8209255499037909</v>
+        <v>0.7752263117781459</v>
       </c>
       <c r="P3">
-        <v>0.8209255499037909</v>
+        <v>0.775226311778146</v>
       </c>
       <c r="Q3">
-        <v>13.25245555354925</v>
+        <v>0.08185125269133332</v>
       </c>
       <c r="R3">
-        <v>13.25245555354925</v>
+        <v>0.7366612742219999</v>
       </c>
       <c r="S3">
-        <v>0.8209255499037909</v>
+        <v>0.00466469045589192</v>
       </c>
       <c r="T3">
-        <v>0.8209255499037909</v>
+        <v>0.00466469045589192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +661,483 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.73335252099574</v>
+        <v>0.01070233333333333</v>
       </c>
       <c r="H4">
-        <v>1.73335252099574</v>
+        <v>0.032107</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.006017198313602724</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.63157409818507</v>
+        <v>0.004539333333333334</v>
       </c>
       <c r="N4">
-        <v>1.63157409818507</v>
+        <v>0.013618</v>
       </c>
       <c r="O4">
-        <v>0.1751866930957443</v>
+        <v>0.0004601227667548901</v>
       </c>
       <c r="P4">
-        <v>0.1751866930957443</v>
+        <v>0.00046012276675489</v>
       </c>
       <c r="Q4">
-        <v>2.828093076280442</v>
+        <v>4.858145844444444E-05</v>
       </c>
       <c r="R4">
-        <v>2.828093076280442</v>
+        <v>0.000437233126</v>
       </c>
       <c r="S4">
-        <v>0.1751866930957443</v>
+        <v>2.768649936167744E-06</v>
       </c>
       <c r="T4">
-        <v>0.1751866930957443</v>
+        <v>2.768649936167744E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.032107</v>
+      </c>
+      <c r="I5">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J5">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.027799</v>
+      </c>
+      <c r="O5">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P5">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q5">
+        <v>9.91713881111111E-05</v>
+      </c>
+      <c r="R5">
+        <v>0.0008925424929999999</v>
+      </c>
+      <c r="S5">
+        <v>5.65176234215943E-06</v>
+      </c>
+      <c r="T5">
+        <v>5.65176234215943E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01070233333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.032107</v>
+      </c>
+      <c r="I6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="J6">
+        <v>0.006017198313602724</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.123561</v>
+      </c>
+      <c r="N6">
+        <v>6.370683</v>
+      </c>
+      <c r="O6">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P6">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q6">
+        <v>0.02272705767566667</v>
+      </c>
+      <c r="R6">
+        <v>0.204543519081</v>
+      </c>
+      <c r="S6">
+        <v>0.001295211564201419</v>
+      </c>
+      <c r="T6">
+        <v>0.001295211564201419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.303765</v>
+      </c>
+      <c r="I7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J7">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.08013433333333332</v>
+      </c>
+      <c r="N7">
+        <v>0.240403</v>
+      </c>
+      <c r="O7">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="P7">
+        <v>0.008122697422248188</v>
+      </c>
+      <c r="Q7">
+        <v>0.1416712241438889</v>
+      </c>
+      <c r="R7">
+        <v>1.275041017295</v>
+      </c>
+      <c r="S7">
+        <v>0.008073821541017131</v>
+      </c>
+      <c r="T7">
+        <v>0.008073821541017131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.303765</v>
+      </c>
+      <c r="I8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J8">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.647982</v>
+      </c>
+      <c r="N8">
+        <v>22.943946</v>
+      </c>
+      <c r="O8">
+        <v>0.7752263117781459</v>
+      </c>
+      <c r="P8">
+        <v>0.775226311778146</v>
+      </c>
+      <c r="Q8">
+        <v>13.52103308407667</v>
+      </c>
+      <c r="R8">
+        <v>121.68929775669</v>
+      </c>
+      <c r="S8">
+        <v>0.770561621322254</v>
+      </c>
+      <c r="T8">
+        <v>0.7705616213222541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.303765</v>
+      </c>
+      <c r="I9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J9">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.004539333333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.013618</v>
+      </c>
+      <c r="O9">
+        <v>0.0004601227667548901</v>
+      </c>
+      <c r="P9">
+        <v>0.00046012276675489</v>
+      </c>
+      <c r="Q9">
+        <v>0.008025185752222223</v>
+      </c>
+      <c r="R9">
+        <v>0.07222667177</v>
+      </c>
+      <c r="S9">
+        <v>0.0004573541168187224</v>
+      </c>
+      <c r="T9">
+        <v>0.0004573541168187223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.303765</v>
+      </c>
+      <c r="I10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J10">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.009266333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.027799</v>
+      </c>
+      <c r="O10">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="P10">
+        <v>0.0009392680858436766</v>
+      </c>
+      <c r="Q10">
+        <v>0.01638215147055556</v>
+      </c>
+      <c r="R10">
+        <v>0.147439363235</v>
+      </c>
+      <c r="S10">
+        <v>0.0009336163235015172</v>
+      </c>
+      <c r="T10">
+        <v>0.0009336163235015172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.767921666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.303765</v>
+      </c>
+      <c r="I11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="J11">
+        <v>0.9939828016863973</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.123561</v>
+      </c>
+      <c r="N11">
+        <v>6.370683</v>
+      </c>
+      <c r="O11">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="P11">
+        <v>0.2152515999470071</v>
+      </c>
+      <c r="Q11">
+        <v>3.754289502388334</v>
+      </c>
+      <c r="R11">
+        <v>33.788605521495</v>
+      </c>
+      <c r="S11">
+        <v>0.2139563883828057</v>
+      </c>
+      <c r="T11">
+        <v>0.2139563883828057</v>
       </c>
     </row>
   </sheetData>
